--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2902,8 +2902,8 @@
   </sheetPr>
   <dimension ref="A1:Z617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3554,7 +3554,7 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="106" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="25" t="s">

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2550,7 +2550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2684,6 +2684,7 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2902,8 +2903,8 @@
   </sheetPr>
   <dimension ref="A1:Z617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3586,7 +3587,7 @@
       <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="str">
+      <c r="A23" s="106" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
       </c>
@@ -3619,7 +3620,7 @@
       <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26" ht="15">
-      <c r="A24" s="27" t="str">
+      <c r="A24" s="106" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
       </c>
@@ -3715,7 +3716,7 @@
       <c r="Z26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="14.25">
-      <c r="A27" s="23" t="str">
+      <c r="A27" s="105" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/max-chunks-to-make-sorted/","Max chunks to make sorted")</f>
         <v>Max chunks to make sorted</v>
       </c>
@@ -3748,7 +3749,7 @@
       <c r="Z27" s="22"/>
     </row>
     <row r="28" spans="1:26" ht="15">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="107" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -3780,7 +3781,7 @@
       <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:26" ht="15">
-      <c r="A29" s="29" t="str">
+      <c r="A29" s="107" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
       </c>
@@ -3813,7 +3814,7 @@
       <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:26" ht="15">
-      <c r="A30" s="24" t="str">
+      <c r="A30" s="106" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-number-at-least-twice-of-others/","largest number atleast twice of others")</f>
         <v>largest number atleast twice of others</v>
       </c>
@@ -3846,7 +3847,7 @@
       <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="1:26" ht="15">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="106" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3878,7 +3879,7 @@
       <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="1:26" ht="15">
-      <c r="A32" s="29" t="str">
+      <c r="A32" s="107" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
       </c>
@@ -3911,7 +3912,7 @@
       <c r="Z32" s="22"/>
     </row>
     <row r="33" spans="1:26" ht="15">
-      <c r="A33" s="29" t="str">
+      <c r="A33" s="107" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
       </c>

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2550,7 +2550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2685,6 +2685,8 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="83" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2903,8 +2905,8 @@
   </sheetPr>
   <dimension ref="A1:Z617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3975,7 +3977,7 @@
       <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="1:26" ht="15">
-      <c r="A35" s="30" t="str">
+      <c r="A35" s="106" t="str">
         <f>HYPERLINK("https://www.codechef.com/JAN18/problems/KCON","K-CON")</f>
         <v>K-CON</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" spans="1:26" ht="15">
-      <c r="A37" s="24" t="str">
+      <c r="A37" s="106" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/","Segregate 0 and 1")</f>
         <v>Segregate 0 and 1</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="1:26" ht="15">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="108" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="32" t="s">
@@ -4106,7 +4108,7 @@
       <c r="Z38" s="34"/>
     </row>
     <row r="39" spans="1:26" ht="15">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="109" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="32" t="s">

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2906,7 +2906,7 @@
   <dimension ref="A1:Z617"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4265,7 +4265,7 @@
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="1:26" ht="15">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="106" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="39" t="s">
@@ -4297,7 +4297,7 @@
       <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="1:26" ht="15">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="106" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="22" t="s">

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -1960,7 +1960,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm"/>
     <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="84">
+  <fonts count="85">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2471,6 +2471,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2547,10 +2554,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2687,8 +2695,10 @@
     <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="83" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="83" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2905,8 +2915,8 @@
   </sheetPr>
   <dimension ref="A1:Z617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4329,7 +4339,7 @@
       <c r="Z45" s="22"/>
     </row>
     <row r="46" spans="1:26" ht="15">
-      <c r="A46" s="27" t="str">
+      <c r="A46" s="106" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/consecutive-numbers-sum/","consecutive number sum")</f>
         <v>consecutive number sum</v>
       </c>
@@ -4392,7 +4402,7 @@
       <c r="Z47" s="22"/>
     </row>
     <row r="48" spans="1:26" ht="15">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="106" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -4424,7 +4434,7 @@
       <c r="Z48" s="22"/>
     </row>
     <row r="49" spans="1:26" ht="15">
-      <c r="A49" s="24" t="str">
+      <c r="A49" s="106" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/sieve-of-eratosthenes/","Sieve of Eratosthenes")</f>
         <v>Sieve of Eratosthenes</v>
       </c>
@@ -4457,7 +4467,7 @@
       <c r="Z49" s="22"/>
     </row>
     <row r="50" spans="1:26" ht="15">
-      <c r="A50" s="24" t="str">
+      <c r="A50" s="106" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/PRIME1/cstart=10","Segmented sieve")</f>
         <v>Segmented sieve</v>
       </c>
@@ -4490,7 +4500,7 @@
       <c r="Z50" s="22"/>
     </row>
     <row r="51" spans="1:26" ht="15">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="110" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="25" t="s">
@@ -4522,7 +4532,7 @@
       <c r="Z51" s="22"/>
     </row>
     <row r="52" spans="1:26" ht="15">
-      <c r="A52" s="24" t="str">
+      <c r="A52" s="106" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-the-number-of-jumps-to-reach-x-in-the-number-line-from-zero/","MIn Jump required with +i or -i allowed")</f>
         <v>MIn Jump required with +i or -i allowed</v>
       </c>
@@ -20321,284 +20331,284 @@
     <hyperlink ref="A44" r:id="rId13"/>
     <hyperlink ref="A45" r:id="rId14"/>
     <hyperlink ref="A48" r:id="rId15"/>
-    <hyperlink ref="A51" r:id="rId16"/>
-    <hyperlink ref="A53" r:id="rId17"/>
-    <hyperlink ref="A60" r:id="rId18"/>
-    <hyperlink ref="A69" r:id="rId19"/>
-    <hyperlink ref="A72" r:id="rId20"/>
-    <hyperlink ref="A73" r:id="rId21"/>
-    <hyperlink ref="A75" r:id="rId22"/>
-    <hyperlink ref="A77" r:id="rId23"/>
-    <hyperlink ref="A78" r:id="rId24"/>
-    <hyperlink ref="A79" r:id="rId25"/>
-    <hyperlink ref="A81" r:id="rId26"/>
-    <hyperlink ref="A84" r:id="rId27"/>
-    <hyperlink ref="A85" r:id="rId28"/>
-    <hyperlink ref="A87" r:id="rId29"/>
-    <hyperlink ref="A88" r:id="rId30"/>
-    <hyperlink ref="A92" r:id="rId31"/>
-    <hyperlink ref="A93" r:id="rId32"/>
-    <hyperlink ref="A94" r:id="rId33"/>
-    <hyperlink ref="A95" r:id="rId34"/>
-    <hyperlink ref="A96" r:id="rId35"/>
-    <hyperlink ref="A97" r:id="rId36"/>
-    <hyperlink ref="A98" r:id="rId37"/>
-    <hyperlink ref="A99" r:id="rId38"/>
-    <hyperlink ref="A100" r:id="rId39"/>
-    <hyperlink ref="A101" r:id="rId40"/>
-    <hyperlink ref="A110" r:id="rId41"/>
-    <hyperlink ref="A113" r:id="rId42"/>
-    <hyperlink ref="A116" r:id="rId43"/>
-    <hyperlink ref="A117" r:id="rId44"/>
-    <hyperlink ref="A118" r:id="rId45"/>
-    <hyperlink ref="A125" r:id="rId46"/>
-    <hyperlink ref="A129" r:id="rId47"/>
-    <hyperlink ref="A130" r:id="rId48"/>
-    <hyperlink ref="A131" r:id="rId49"/>
-    <hyperlink ref="A133" r:id="rId50"/>
-    <hyperlink ref="A134" r:id="rId51"/>
-    <hyperlink ref="A135" r:id="rId52"/>
-    <hyperlink ref="A136" r:id="rId53"/>
-    <hyperlink ref="A137" r:id="rId54"/>
-    <hyperlink ref="A138" r:id="rId55"/>
-    <hyperlink ref="A139" r:id="rId56"/>
-    <hyperlink ref="A140" r:id="rId57"/>
-    <hyperlink ref="A141" r:id="rId58"/>
-    <hyperlink ref="A142" r:id="rId59"/>
-    <hyperlink ref="A143" r:id="rId60"/>
-    <hyperlink ref="A168" r:id="rId61"/>
-    <hyperlink ref="A171" r:id="rId62"/>
-    <hyperlink ref="A179" r:id="rId63"/>
-    <hyperlink ref="A180" r:id="rId64"/>
-    <hyperlink ref="A187" r:id="rId65"/>
-    <hyperlink ref="A188" r:id="rId66"/>
-    <hyperlink ref="A189" r:id="rId67"/>
-    <hyperlink ref="A194" r:id="rId68"/>
-    <hyperlink ref="A197" r:id="rId69"/>
-    <hyperlink ref="A198" r:id="rId70"/>
-    <hyperlink ref="A199" r:id="rId71"/>
-    <hyperlink ref="A201" r:id="rId72"/>
-    <hyperlink ref="A202" r:id="rId73"/>
-    <hyperlink ref="A208" r:id="rId74"/>
-    <hyperlink ref="A209" r:id="rId75"/>
-    <hyperlink ref="A216" r:id="rId76"/>
-    <hyperlink ref="A221" r:id="rId77"/>
-    <hyperlink ref="A222" r:id="rId78"/>
-    <hyperlink ref="A223" r:id="rId79"/>
-    <hyperlink ref="A224" r:id="rId80"/>
-    <hyperlink ref="A226" r:id="rId81"/>
-    <hyperlink ref="A227" r:id="rId82"/>
-    <hyperlink ref="A228" r:id="rId83"/>
-    <hyperlink ref="A229" r:id="rId84"/>
-    <hyperlink ref="A230" r:id="rId85"/>
-    <hyperlink ref="A231" r:id="rId86"/>
-    <hyperlink ref="A232" r:id="rId87"/>
-    <hyperlink ref="A233" r:id="rId88"/>
-    <hyperlink ref="A234" r:id="rId89"/>
-    <hyperlink ref="A235" r:id="rId90"/>
-    <hyperlink ref="A237" r:id="rId91"/>
-    <hyperlink ref="A241" r:id="rId92"/>
-    <hyperlink ref="A245" r:id="rId93"/>
-    <hyperlink ref="A248" r:id="rId94"/>
-    <hyperlink ref="A249" r:id="rId95"/>
-    <hyperlink ref="A250" r:id="rId96"/>
-    <hyperlink ref="A252" r:id="rId97"/>
-    <hyperlink ref="A253" r:id="rId98"/>
-    <hyperlink ref="A254" r:id="rId99"/>
-    <hyperlink ref="A255" r:id="rId100"/>
-    <hyperlink ref="A257" r:id="rId101"/>
-    <hyperlink ref="A258" r:id="rId102"/>
-    <hyperlink ref="A261" r:id="rId103"/>
-    <hyperlink ref="A262" r:id="rId104"/>
-    <hyperlink ref="A267" r:id="rId105"/>
-    <hyperlink ref="A268" r:id="rId106"/>
-    <hyperlink ref="A269" r:id="rId107"/>
-    <hyperlink ref="A270" r:id="rId108"/>
-    <hyperlink ref="A273" r:id="rId109"/>
-    <hyperlink ref="A274" r:id="rId110"/>
-    <hyperlink ref="A275" r:id="rId111"/>
-    <hyperlink ref="A276" r:id="rId112"/>
-    <hyperlink ref="A277" r:id="rId113"/>
-    <hyperlink ref="A280" r:id="rId114"/>
-    <hyperlink ref="A281" r:id="rId115"/>
-    <hyperlink ref="A283" r:id="rId116"/>
-    <hyperlink ref="A284" r:id="rId117"/>
-    <hyperlink ref="A287" r:id="rId118"/>
-    <hyperlink ref="A288" r:id="rId119"/>
-    <hyperlink ref="A289" r:id="rId120"/>
-    <hyperlink ref="A292" r:id="rId121"/>
-    <hyperlink ref="A293" r:id="rId122"/>
-    <hyperlink ref="A294" r:id="rId123"/>
-    <hyperlink ref="A295" r:id="rId124"/>
-    <hyperlink ref="A296" r:id="rId125"/>
-    <hyperlink ref="A297" r:id="rId126"/>
-    <hyperlink ref="A298" r:id="rId127"/>
-    <hyperlink ref="A299" r:id="rId128"/>
-    <hyperlink ref="A300" r:id="rId129"/>
-    <hyperlink ref="A301" r:id="rId130"/>
-    <hyperlink ref="A302" r:id="rId131"/>
-    <hyperlink ref="A303" r:id="rId132"/>
-    <hyperlink ref="A304" r:id="rId133"/>
-    <hyperlink ref="A305" r:id="rId134"/>
-    <hyperlink ref="A306" r:id="rId135"/>
-    <hyperlink ref="A307" r:id="rId136"/>
-    <hyperlink ref="A312" r:id="rId137"/>
-    <hyperlink ref="A320" r:id="rId138"/>
-    <hyperlink ref="A328" r:id="rId139"/>
-    <hyperlink ref="A340" r:id="rId140"/>
-    <hyperlink ref="A356" r:id="rId141"/>
-    <hyperlink ref="A361" r:id="rId142"/>
-    <hyperlink ref="A362" r:id="rId143"/>
-    <hyperlink ref="A369" r:id="rId144"/>
-    <hyperlink ref="A370" r:id="rId145"/>
-    <hyperlink ref="A371" r:id="rId146"/>
-    <hyperlink ref="A372" r:id="rId147"/>
-    <hyperlink ref="A373" r:id="rId148"/>
-    <hyperlink ref="A374" r:id="rId149"/>
-    <hyperlink ref="A375" r:id="rId150"/>
-    <hyperlink ref="A376" r:id="rId151"/>
-    <hyperlink ref="A377" r:id="rId152"/>
-    <hyperlink ref="A378" r:id="rId153"/>
-    <hyperlink ref="A379" r:id="rId154"/>
-    <hyperlink ref="A380" r:id="rId155"/>
-    <hyperlink ref="A381" r:id="rId156"/>
-    <hyperlink ref="A382" r:id="rId157"/>
-    <hyperlink ref="A383" r:id="rId158"/>
-    <hyperlink ref="A384" r:id="rId159"/>
-    <hyperlink ref="A385" r:id="rId160"/>
-    <hyperlink ref="A386" r:id="rId161"/>
-    <hyperlink ref="A387" r:id="rId162"/>
-    <hyperlink ref="A388" r:id="rId163"/>
-    <hyperlink ref="A389" r:id="rId164"/>
-    <hyperlink ref="A390" r:id="rId165"/>
-    <hyperlink ref="A391" r:id="rId166"/>
-    <hyperlink ref="A392" r:id="rId167"/>
-    <hyperlink ref="A393" r:id="rId168"/>
-    <hyperlink ref="A394" r:id="rId169"/>
-    <hyperlink ref="A395" r:id="rId170"/>
-    <hyperlink ref="A396" r:id="rId171"/>
-    <hyperlink ref="A397" r:id="rId172"/>
-    <hyperlink ref="A398" r:id="rId173"/>
-    <hyperlink ref="A399" r:id="rId174"/>
-    <hyperlink ref="A400" r:id="rId175"/>
-    <hyperlink ref="A401" r:id="rId176"/>
-    <hyperlink ref="A402" r:id="rId177"/>
-    <hyperlink ref="A403" r:id="rId178"/>
-    <hyperlink ref="A404" r:id="rId179"/>
-    <hyperlink ref="A405" r:id="rId180"/>
-    <hyperlink ref="A406" r:id="rId181"/>
-    <hyperlink ref="A407" r:id="rId182"/>
-    <hyperlink ref="A408" r:id="rId183"/>
-    <hyperlink ref="A410" r:id="rId184"/>
-    <hyperlink ref="A411" r:id="rId185"/>
-    <hyperlink ref="A412" r:id="rId186"/>
-    <hyperlink ref="A413" r:id="rId187"/>
-    <hyperlink ref="A414" r:id="rId188"/>
-    <hyperlink ref="A415" r:id="rId189"/>
-    <hyperlink ref="A416" r:id="rId190"/>
-    <hyperlink ref="A417" r:id="rId191"/>
-    <hyperlink ref="A418" r:id="rId192"/>
-    <hyperlink ref="A419" r:id="rId193"/>
-    <hyperlink ref="A420" r:id="rId194"/>
-    <hyperlink ref="A421" r:id="rId195"/>
-    <hyperlink ref="A422" r:id="rId196"/>
-    <hyperlink ref="A423" r:id="rId197"/>
-    <hyperlink ref="A424" r:id="rId198"/>
-    <hyperlink ref="A425" r:id="rId199"/>
-    <hyperlink ref="A426" r:id="rId200"/>
-    <hyperlink ref="A427" r:id="rId201"/>
-    <hyperlink ref="A428" r:id="rId202"/>
-    <hyperlink ref="A429" r:id="rId203"/>
-    <hyperlink ref="A430" r:id="rId204"/>
-    <hyperlink ref="A431" r:id="rId205"/>
-    <hyperlink ref="A435" r:id="rId206"/>
-    <hyperlink ref="A436" r:id="rId207"/>
-    <hyperlink ref="A437" r:id="rId208"/>
-    <hyperlink ref="A439" r:id="rId209"/>
-    <hyperlink ref="A440" r:id="rId210"/>
-    <hyperlink ref="A441" r:id="rId211"/>
-    <hyperlink ref="A442" r:id="rId212"/>
-    <hyperlink ref="A443" r:id="rId213"/>
-    <hyperlink ref="A444" r:id="rId214"/>
-    <hyperlink ref="A445" r:id="rId215"/>
-    <hyperlink ref="A446" r:id="rId216"/>
-    <hyperlink ref="A447" r:id="rId217"/>
-    <hyperlink ref="A448" r:id="rId218"/>
-    <hyperlink ref="A449" r:id="rId219"/>
-    <hyperlink ref="A450" r:id="rId220"/>
-    <hyperlink ref="A451" r:id="rId221"/>
-    <hyperlink ref="A452" r:id="rId222"/>
-    <hyperlink ref="A453" r:id="rId223"/>
-    <hyperlink ref="A454" r:id="rId224"/>
-    <hyperlink ref="A457" r:id="rId225"/>
-    <hyperlink ref="A461" r:id="rId226"/>
-    <hyperlink ref="A462" r:id="rId227"/>
-    <hyperlink ref="A464" r:id="rId228"/>
-    <hyperlink ref="A465" r:id="rId229"/>
-    <hyperlink ref="A466" r:id="rId230"/>
-    <hyperlink ref="A468" r:id="rId231"/>
-    <hyperlink ref="A469" r:id="rId232"/>
-    <hyperlink ref="A470" r:id="rId233"/>
-    <hyperlink ref="A471" r:id="rId234"/>
-    <hyperlink ref="A472" r:id="rId235"/>
-    <hyperlink ref="A475" r:id="rId236"/>
-    <hyperlink ref="A477" r:id="rId237"/>
-    <hyperlink ref="A478" r:id="rId238"/>
-    <hyperlink ref="A479" r:id="rId239"/>
-    <hyperlink ref="A480" r:id="rId240"/>
-    <hyperlink ref="A481" r:id="rId241"/>
-    <hyperlink ref="A482" r:id="rId242"/>
-    <hyperlink ref="A483" r:id="rId243"/>
-    <hyperlink ref="A485" r:id="rId244"/>
-    <hyperlink ref="A486" r:id="rId245"/>
-    <hyperlink ref="A487" r:id="rId246"/>
-    <hyperlink ref="A488" r:id="rId247"/>
-    <hyperlink ref="A489" r:id="rId248"/>
-    <hyperlink ref="A490" r:id="rId249"/>
-    <hyperlink ref="A491" r:id="rId250"/>
-    <hyperlink ref="A492" r:id="rId251"/>
-    <hyperlink ref="A493" r:id="rId252"/>
-    <hyperlink ref="A494" r:id="rId253"/>
-    <hyperlink ref="A495" r:id="rId254"/>
-    <hyperlink ref="A496" r:id="rId255"/>
-    <hyperlink ref="A497" r:id="rId256"/>
-    <hyperlink ref="A498" r:id="rId257"/>
-    <hyperlink ref="A500" r:id="rId258"/>
-    <hyperlink ref="A501" r:id="rId259"/>
-    <hyperlink ref="A502" r:id="rId260"/>
-    <hyperlink ref="A503" r:id="rId261"/>
-    <hyperlink ref="A504" r:id="rId262"/>
-    <hyperlink ref="A505" r:id="rId263"/>
-    <hyperlink ref="A506" r:id="rId264"/>
-    <hyperlink ref="A507" r:id="rId265"/>
-    <hyperlink ref="A508" r:id="rId266"/>
-    <hyperlink ref="A511" r:id="rId267"/>
-    <hyperlink ref="A512" r:id="rId268"/>
-    <hyperlink ref="A517" r:id="rId269"/>
-    <hyperlink ref="A519" r:id="rId270"/>
-    <hyperlink ref="A520" r:id="rId271"/>
-    <hyperlink ref="A521" r:id="rId272"/>
-    <hyperlink ref="A522" r:id="rId273"/>
-    <hyperlink ref="A524" r:id="rId274"/>
-    <hyperlink ref="A525" r:id="rId275"/>
-    <hyperlink ref="A526" r:id="rId276"/>
-    <hyperlink ref="A527" r:id="rId277"/>
-    <hyperlink ref="A528" r:id="rId278"/>
-    <hyperlink ref="A529" r:id="rId279"/>
-    <hyperlink ref="A530" r:id="rId280"/>
-    <hyperlink ref="A531" r:id="rId281"/>
-    <hyperlink ref="A533" r:id="rId282"/>
-    <hyperlink ref="A534" r:id="rId283"/>
-    <hyperlink ref="A535" r:id="rId284"/>
-    <hyperlink ref="A536" r:id="rId285"/>
-    <hyperlink ref="A537" r:id="rId286"/>
-    <hyperlink ref="A538" r:id="rId287"/>
-    <hyperlink ref="A542" r:id="rId288"/>
-    <hyperlink ref="A543" r:id="rId289"/>
-    <hyperlink ref="A544" r:id="rId290"/>
-    <hyperlink ref="A545" r:id="rId291"/>
-    <hyperlink ref="A546" r:id="rId292"/>
-    <hyperlink ref="A547" r:id="rId293"/>
+    <hyperlink ref="A53" r:id="rId16"/>
+    <hyperlink ref="A60" r:id="rId17"/>
+    <hyperlink ref="A69" r:id="rId18"/>
+    <hyperlink ref="A72" r:id="rId19"/>
+    <hyperlink ref="A73" r:id="rId20"/>
+    <hyperlink ref="A75" r:id="rId21"/>
+    <hyperlink ref="A77" r:id="rId22"/>
+    <hyperlink ref="A78" r:id="rId23"/>
+    <hyperlink ref="A79" r:id="rId24"/>
+    <hyperlink ref="A81" r:id="rId25"/>
+    <hyperlink ref="A84" r:id="rId26"/>
+    <hyperlink ref="A85" r:id="rId27"/>
+    <hyperlink ref="A87" r:id="rId28"/>
+    <hyperlink ref="A88" r:id="rId29"/>
+    <hyperlink ref="A92" r:id="rId30"/>
+    <hyperlink ref="A93" r:id="rId31"/>
+    <hyperlink ref="A94" r:id="rId32"/>
+    <hyperlink ref="A95" r:id="rId33"/>
+    <hyperlink ref="A96" r:id="rId34"/>
+    <hyperlink ref="A97" r:id="rId35"/>
+    <hyperlink ref="A98" r:id="rId36"/>
+    <hyperlink ref="A99" r:id="rId37"/>
+    <hyperlink ref="A100" r:id="rId38"/>
+    <hyperlink ref="A101" r:id="rId39"/>
+    <hyperlink ref="A110" r:id="rId40"/>
+    <hyperlink ref="A113" r:id="rId41"/>
+    <hyperlink ref="A116" r:id="rId42"/>
+    <hyperlink ref="A117" r:id="rId43"/>
+    <hyperlink ref="A118" r:id="rId44"/>
+    <hyperlink ref="A125" r:id="rId45"/>
+    <hyperlink ref="A129" r:id="rId46"/>
+    <hyperlink ref="A130" r:id="rId47"/>
+    <hyperlink ref="A131" r:id="rId48"/>
+    <hyperlink ref="A133" r:id="rId49"/>
+    <hyperlink ref="A134" r:id="rId50"/>
+    <hyperlink ref="A135" r:id="rId51"/>
+    <hyperlink ref="A136" r:id="rId52"/>
+    <hyperlink ref="A137" r:id="rId53"/>
+    <hyperlink ref="A138" r:id="rId54"/>
+    <hyperlink ref="A139" r:id="rId55"/>
+    <hyperlink ref="A140" r:id="rId56"/>
+    <hyperlink ref="A141" r:id="rId57"/>
+    <hyperlink ref="A142" r:id="rId58"/>
+    <hyperlink ref="A143" r:id="rId59"/>
+    <hyperlink ref="A168" r:id="rId60"/>
+    <hyperlink ref="A171" r:id="rId61"/>
+    <hyperlink ref="A179" r:id="rId62"/>
+    <hyperlink ref="A180" r:id="rId63"/>
+    <hyperlink ref="A187" r:id="rId64"/>
+    <hyperlink ref="A188" r:id="rId65"/>
+    <hyperlink ref="A189" r:id="rId66"/>
+    <hyperlink ref="A194" r:id="rId67"/>
+    <hyperlink ref="A197" r:id="rId68"/>
+    <hyperlink ref="A198" r:id="rId69"/>
+    <hyperlink ref="A199" r:id="rId70"/>
+    <hyperlink ref="A201" r:id="rId71"/>
+    <hyperlink ref="A202" r:id="rId72"/>
+    <hyperlink ref="A208" r:id="rId73"/>
+    <hyperlink ref="A209" r:id="rId74"/>
+    <hyperlink ref="A216" r:id="rId75"/>
+    <hyperlink ref="A221" r:id="rId76"/>
+    <hyperlink ref="A222" r:id="rId77"/>
+    <hyperlink ref="A223" r:id="rId78"/>
+    <hyperlink ref="A224" r:id="rId79"/>
+    <hyperlink ref="A226" r:id="rId80"/>
+    <hyperlink ref="A227" r:id="rId81"/>
+    <hyperlink ref="A228" r:id="rId82"/>
+    <hyperlink ref="A229" r:id="rId83"/>
+    <hyperlink ref="A230" r:id="rId84"/>
+    <hyperlink ref="A231" r:id="rId85"/>
+    <hyperlink ref="A232" r:id="rId86"/>
+    <hyperlink ref="A233" r:id="rId87"/>
+    <hyperlink ref="A234" r:id="rId88"/>
+    <hyperlink ref="A235" r:id="rId89"/>
+    <hyperlink ref="A237" r:id="rId90"/>
+    <hyperlink ref="A241" r:id="rId91"/>
+    <hyperlink ref="A245" r:id="rId92"/>
+    <hyperlink ref="A248" r:id="rId93"/>
+    <hyperlink ref="A249" r:id="rId94"/>
+    <hyperlink ref="A250" r:id="rId95"/>
+    <hyperlink ref="A252" r:id="rId96"/>
+    <hyperlink ref="A253" r:id="rId97"/>
+    <hyperlink ref="A254" r:id="rId98"/>
+    <hyperlink ref="A255" r:id="rId99"/>
+    <hyperlink ref="A257" r:id="rId100"/>
+    <hyperlink ref="A258" r:id="rId101"/>
+    <hyperlink ref="A261" r:id="rId102"/>
+    <hyperlink ref="A262" r:id="rId103"/>
+    <hyperlink ref="A267" r:id="rId104"/>
+    <hyperlink ref="A268" r:id="rId105"/>
+    <hyperlink ref="A269" r:id="rId106"/>
+    <hyperlink ref="A270" r:id="rId107"/>
+    <hyperlink ref="A273" r:id="rId108"/>
+    <hyperlink ref="A274" r:id="rId109"/>
+    <hyperlink ref="A275" r:id="rId110"/>
+    <hyperlink ref="A276" r:id="rId111"/>
+    <hyperlink ref="A277" r:id="rId112"/>
+    <hyperlink ref="A280" r:id="rId113"/>
+    <hyperlink ref="A281" r:id="rId114"/>
+    <hyperlink ref="A283" r:id="rId115"/>
+    <hyperlink ref="A284" r:id="rId116"/>
+    <hyperlink ref="A287" r:id="rId117"/>
+    <hyperlink ref="A288" r:id="rId118"/>
+    <hyperlink ref="A289" r:id="rId119"/>
+    <hyperlink ref="A292" r:id="rId120"/>
+    <hyperlink ref="A293" r:id="rId121"/>
+    <hyperlink ref="A294" r:id="rId122"/>
+    <hyperlink ref="A295" r:id="rId123"/>
+    <hyperlink ref="A296" r:id="rId124"/>
+    <hyperlink ref="A297" r:id="rId125"/>
+    <hyperlink ref="A298" r:id="rId126"/>
+    <hyperlink ref="A299" r:id="rId127"/>
+    <hyperlink ref="A300" r:id="rId128"/>
+    <hyperlink ref="A301" r:id="rId129"/>
+    <hyperlink ref="A302" r:id="rId130"/>
+    <hyperlink ref="A303" r:id="rId131"/>
+    <hyperlink ref="A304" r:id="rId132"/>
+    <hyperlink ref="A305" r:id="rId133"/>
+    <hyperlink ref="A306" r:id="rId134"/>
+    <hyperlink ref="A307" r:id="rId135"/>
+    <hyperlink ref="A312" r:id="rId136"/>
+    <hyperlink ref="A320" r:id="rId137"/>
+    <hyperlink ref="A328" r:id="rId138"/>
+    <hyperlink ref="A340" r:id="rId139"/>
+    <hyperlink ref="A356" r:id="rId140"/>
+    <hyperlink ref="A361" r:id="rId141"/>
+    <hyperlink ref="A362" r:id="rId142"/>
+    <hyperlink ref="A369" r:id="rId143"/>
+    <hyperlink ref="A370" r:id="rId144"/>
+    <hyperlink ref="A371" r:id="rId145"/>
+    <hyperlink ref="A372" r:id="rId146"/>
+    <hyperlink ref="A373" r:id="rId147"/>
+    <hyperlink ref="A374" r:id="rId148"/>
+    <hyperlink ref="A375" r:id="rId149"/>
+    <hyperlink ref="A376" r:id="rId150"/>
+    <hyperlink ref="A377" r:id="rId151"/>
+    <hyperlink ref="A378" r:id="rId152"/>
+    <hyperlink ref="A379" r:id="rId153"/>
+    <hyperlink ref="A380" r:id="rId154"/>
+    <hyperlink ref="A381" r:id="rId155"/>
+    <hyperlink ref="A382" r:id="rId156"/>
+    <hyperlink ref="A383" r:id="rId157"/>
+    <hyperlink ref="A384" r:id="rId158"/>
+    <hyperlink ref="A385" r:id="rId159"/>
+    <hyperlink ref="A386" r:id="rId160"/>
+    <hyperlink ref="A387" r:id="rId161"/>
+    <hyperlink ref="A388" r:id="rId162"/>
+    <hyperlink ref="A389" r:id="rId163"/>
+    <hyperlink ref="A390" r:id="rId164"/>
+    <hyperlink ref="A391" r:id="rId165"/>
+    <hyperlink ref="A392" r:id="rId166"/>
+    <hyperlink ref="A393" r:id="rId167"/>
+    <hyperlink ref="A394" r:id="rId168"/>
+    <hyperlink ref="A395" r:id="rId169"/>
+    <hyperlink ref="A396" r:id="rId170"/>
+    <hyperlink ref="A397" r:id="rId171"/>
+    <hyperlink ref="A398" r:id="rId172"/>
+    <hyperlink ref="A399" r:id="rId173"/>
+    <hyperlink ref="A400" r:id="rId174"/>
+    <hyperlink ref="A401" r:id="rId175"/>
+    <hyperlink ref="A402" r:id="rId176"/>
+    <hyperlink ref="A403" r:id="rId177"/>
+    <hyperlink ref="A404" r:id="rId178"/>
+    <hyperlink ref="A405" r:id="rId179"/>
+    <hyperlink ref="A406" r:id="rId180"/>
+    <hyperlink ref="A407" r:id="rId181"/>
+    <hyperlink ref="A408" r:id="rId182"/>
+    <hyperlink ref="A410" r:id="rId183"/>
+    <hyperlink ref="A411" r:id="rId184"/>
+    <hyperlink ref="A412" r:id="rId185"/>
+    <hyperlink ref="A413" r:id="rId186"/>
+    <hyperlink ref="A414" r:id="rId187"/>
+    <hyperlink ref="A415" r:id="rId188"/>
+    <hyperlink ref="A416" r:id="rId189"/>
+    <hyperlink ref="A417" r:id="rId190"/>
+    <hyperlink ref="A418" r:id="rId191"/>
+    <hyperlink ref="A419" r:id="rId192"/>
+    <hyperlink ref="A420" r:id="rId193"/>
+    <hyperlink ref="A421" r:id="rId194"/>
+    <hyperlink ref="A422" r:id="rId195"/>
+    <hyperlink ref="A423" r:id="rId196"/>
+    <hyperlink ref="A424" r:id="rId197"/>
+    <hyperlink ref="A425" r:id="rId198"/>
+    <hyperlink ref="A426" r:id="rId199"/>
+    <hyperlink ref="A427" r:id="rId200"/>
+    <hyperlink ref="A428" r:id="rId201"/>
+    <hyperlink ref="A429" r:id="rId202"/>
+    <hyperlink ref="A430" r:id="rId203"/>
+    <hyperlink ref="A431" r:id="rId204"/>
+    <hyperlink ref="A435" r:id="rId205"/>
+    <hyperlink ref="A436" r:id="rId206"/>
+    <hyperlink ref="A437" r:id="rId207"/>
+    <hyperlink ref="A439" r:id="rId208"/>
+    <hyperlink ref="A440" r:id="rId209"/>
+    <hyperlink ref="A441" r:id="rId210"/>
+    <hyperlink ref="A442" r:id="rId211"/>
+    <hyperlink ref="A443" r:id="rId212"/>
+    <hyperlink ref="A444" r:id="rId213"/>
+    <hyperlink ref="A445" r:id="rId214"/>
+    <hyperlink ref="A446" r:id="rId215"/>
+    <hyperlink ref="A447" r:id="rId216"/>
+    <hyperlink ref="A448" r:id="rId217"/>
+    <hyperlink ref="A449" r:id="rId218"/>
+    <hyperlink ref="A450" r:id="rId219"/>
+    <hyperlink ref="A451" r:id="rId220"/>
+    <hyperlink ref="A452" r:id="rId221"/>
+    <hyperlink ref="A453" r:id="rId222"/>
+    <hyperlink ref="A454" r:id="rId223"/>
+    <hyperlink ref="A457" r:id="rId224"/>
+    <hyperlink ref="A461" r:id="rId225"/>
+    <hyperlink ref="A462" r:id="rId226"/>
+    <hyperlink ref="A464" r:id="rId227"/>
+    <hyperlink ref="A465" r:id="rId228"/>
+    <hyperlink ref="A466" r:id="rId229"/>
+    <hyperlink ref="A468" r:id="rId230"/>
+    <hyperlink ref="A469" r:id="rId231"/>
+    <hyperlink ref="A470" r:id="rId232"/>
+    <hyperlink ref="A471" r:id="rId233"/>
+    <hyperlink ref="A472" r:id="rId234"/>
+    <hyperlink ref="A475" r:id="rId235"/>
+    <hyperlink ref="A477" r:id="rId236"/>
+    <hyperlink ref="A478" r:id="rId237"/>
+    <hyperlink ref="A479" r:id="rId238"/>
+    <hyperlink ref="A480" r:id="rId239"/>
+    <hyperlink ref="A481" r:id="rId240"/>
+    <hyperlink ref="A482" r:id="rId241"/>
+    <hyperlink ref="A483" r:id="rId242"/>
+    <hyperlink ref="A485" r:id="rId243"/>
+    <hyperlink ref="A486" r:id="rId244"/>
+    <hyperlink ref="A487" r:id="rId245"/>
+    <hyperlink ref="A488" r:id="rId246"/>
+    <hyperlink ref="A489" r:id="rId247"/>
+    <hyperlink ref="A490" r:id="rId248"/>
+    <hyperlink ref="A491" r:id="rId249"/>
+    <hyperlink ref="A492" r:id="rId250"/>
+    <hyperlink ref="A493" r:id="rId251"/>
+    <hyperlink ref="A494" r:id="rId252"/>
+    <hyperlink ref="A495" r:id="rId253"/>
+    <hyperlink ref="A496" r:id="rId254"/>
+    <hyperlink ref="A497" r:id="rId255"/>
+    <hyperlink ref="A498" r:id="rId256"/>
+    <hyperlink ref="A500" r:id="rId257"/>
+    <hyperlink ref="A501" r:id="rId258"/>
+    <hyperlink ref="A502" r:id="rId259"/>
+    <hyperlink ref="A503" r:id="rId260"/>
+    <hyperlink ref="A504" r:id="rId261"/>
+    <hyperlink ref="A505" r:id="rId262"/>
+    <hyperlink ref="A506" r:id="rId263"/>
+    <hyperlink ref="A507" r:id="rId264"/>
+    <hyperlink ref="A508" r:id="rId265"/>
+    <hyperlink ref="A511" r:id="rId266"/>
+    <hyperlink ref="A512" r:id="rId267"/>
+    <hyperlink ref="A517" r:id="rId268"/>
+    <hyperlink ref="A519" r:id="rId269"/>
+    <hyperlink ref="A520" r:id="rId270"/>
+    <hyperlink ref="A521" r:id="rId271"/>
+    <hyperlink ref="A522" r:id="rId272"/>
+    <hyperlink ref="A524" r:id="rId273"/>
+    <hyperlink ref="A525" r:id="rId274"/>
+    <hyperlink ref="A526" r:id="rId275"/>
+    <hyperlink ref="A527" r:id="rId276"/>
+    <hyperlink ref="A528" r:id="rId277"/>
+    <hyperlink ref="A529" r:id="rId278"/>
+    <hyperlink ref="A530" r:id="rId279"/>
+    <hyperlink ref="A531" r:id="rId280"/>
+    <hyperlink ref="A533" r:id="rId281"/>
+    <hyperlink ref="A534" r:id="rId282"/>
+    <hyperlink ref="A535" r:id="rId283"/>
+    <hyperlink ref="A536" r:id="rId284"/>
+    <hyperlink ref="A537" r:id="rId285"/>
+    <hyperlink ref="A538" r:id="rId286"/>
+    <hyperlink ref="A542" r:id="rId287"/>
+    <hyperlink ref="A543" r:id="rId288"/>
+    <hyperlink ref="A544" r:id="rId289"/>
+    <hyperlink ref="A545" r:id="rId290"/>
+    <hyperlink ref="A546" r:id="rId291"/>
+    <hyperlink ref="A547" r:id="rId292"/>
+    <hyperlink ref="A51" r:id="rId293"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
